--- a/Automation-UserCMD/TestData/Outputs/UserEnrollmentOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/UserEnrollmentOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserEnrollment (1)" sheetId="1" r:id="Ra18ab00d97f24889"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserEnrollment (1)" sheetId="1" r:id="Rbac8464fb3454774"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/UserEnrollmentOutput.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/UserEnrollmentOutput.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserEnrollment (1)" sheetId="1" r:id="Rbac8464fb3454774"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UserEnrollment (1)" sheetId="1" r:id="R7d5fda30a6c749b2"/>
   </x:sheets>
 </x:workbook>
 </file>
